--- a/make my trip.xlsx
+++ b/make my trip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONISHA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnilKumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="114">
   <si>
     <t>TC01_navigating ToURL</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Successful Login</t>
   </si>
   <si>
-    <t>moun@123</t>
-  </si>
-  <si>
     <t>TC06_LoginWithInvalidDetails</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>asdsf</t>
   </si>
   <si>
-    <t>mouni123</t>
-  </si>
-  <si>
     <t>TC10_Homestays</t>
   </si>
   <si>
@@ -363,6 +357,15 @@
   </si>
   <si>
     <t>Conform page will be displayed</t>
+  </si>
+  <si>
+    <t>kummaraanil560@gmail.com</t>
+  </si>
+  <si>
+    <t>Anil@123</t>
+  </si>
+  <si>
+    <t>age below 12 year</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -858,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -892,22 +895,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -921,30 +924,30 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -961,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -972,19 +975,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -995,16 +998,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -1044,10 +1047,10 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1058,28 +1061,28 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
       <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1087,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1107,10 +1110,10 @@
         <v>1233</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1121,19 +1124,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1144,19 +1147,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1167,19 +1170,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3">
         <v>44158</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1193,39 +1196,39 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3">
         <v>44160</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -1239,39 +1242,39 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1280,44 +1283,44 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -1331,39 +1334,39 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -1374,13 +1377,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -1391,13 +1394,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -1408,19 +1411,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" t="s">
-        <v>98</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -1431,16 +1434,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
@@ -1451,16 +1454,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
         <v>100</v>
       </c>
-      <c r="E35" t="s">
-        <v>102</v>
-      </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -1471,16 +1474,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>25</v>
@@ -1494,10 +1497,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
@@ -1511,10 +1514,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
         <v>25</v>
@@ -1523,35 +1526,35 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="abe@555"/>
+    <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D14" r:id="rId3"/>
     <hyperlink ref="D15" r:id="rId4"/>
